--- a/medicine/Enfance/Sherwood_Smith/Sherwood_Smith.xlsx
+++ b/medicine/Enfance/Sherwood_Smith/Sherwood_Smith.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sherwood Smith, née le 28 mai 1951, est une écrivaine américaine de fantasy et science-fiction pour adolescents et jeunes adultes. En 2001, elle fut finaliste au prix Nebula de la meilleure nouvelle courte pour Mom and Dad at the Home Front.
 </t>
@@ -513,35 +525,244 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Série Wren
-Wren to the Rescue (1990), réédité par Firebird (2004)
+          <t>Série Wren</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Wren to the Rescue (1990), réédité par Firebird (2004)
 Wren's Quest (1993), réédité par Firebird (2004)
-Wren's War (1995), réédité Firebird (2004)
-Série Exordium
-Cette série est coécrite avec Dave Trowbridge
+Wren's War (1995), réédité Firebird (2004)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Sherwood_Smith</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sherwood_Smith</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Série Exordium</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cette série est coécrite avec Dave Trowbridge
 Exordium: The Phoenix in Flight (1993)
 Exordium: Ruler of Naught (1993)
 Exordium: A Prison Unsought (1994)
 Exordium: The Rifter's Covenant (1995)
-Exordium: The Thrones of Kronos (1996)
-Série Andre Norton's Solar Queen Universe
-Derelict for Trade (1997) (avec Andre Norton)
-A Mind for Trade (1997) (avec Andre Norton)
-Série Andre Norton's Time Traders Universe
-Echoes in Time (1999)
-Atlantis Endgame (2002)
-Série Oz
-The Emerald Wand of Oz (2005), premier tome d'une nouvelle continuation des romans sur le pays d'Oz,
+Exordium: The Thrones of Kronos (1996)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Sherwood_Smith</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sherwood_Smith</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Andre Norton's Solar Queen Universe</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Derelict for Trade (1997) (avec Andre Norton)
+A Mind for Trade (1997) (avec Andre Norton)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Sherwood_Smith</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sherwood_Smith</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Andre Norton's Time Traders Universe</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Echoes in Time (1999)
+Atlantis Endgame (2002)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Sherwood_Smith</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sherwood_Smith</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Oz</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>The Emerald Wand of Oz (2005), premier tome d'une nouvelle continuation des romans sur le pays d'Oz,
 Trouble Under Oz (2006)
 TBA (2007)
-TBA (2008)
-Autres romans
-Inda (2006) DAW Books
+TBA (2008)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Sherwood_Smith</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sherwood_Smith</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Inda (2006) DAW Books
 Crown Duel publié en 1997 et 1998 en deux parties comme Crown Duel et Court Duel, réuni en un volume par Firebird Books en 2002
 Journey to Otherwhere (2000), Voyage of the Basset series, book 3
-Augur's Teacher (2001), basé sur le show télévisé
-Nouvelles
-Monster Mash (1988), in Werewolves
+Augur's Teacher (2001), basé sur le show télévisé</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Sherwood_Smith</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Sherwood_Smith</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Monster Mash (1988), in Werewolves
 Ghost Dancers (1989), in Things That Go Bump In The Night
 Faith (1993), in A Wizard's Dozen
 Curing the Bozos (1994), in Bruce Coville's Book of Aliens
